--- a/Tabelas_aço.xlsx
+++ b/Tabelas_aço.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,7 @@
   <sheets>
     <sheet name="Ferro gusa e aço" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -109,12 +110,27 @@
     <t>Sistemas de monitoramento</t>
   </si>
   <si>
+    <t>Tecnologias de produção</t>
+  </si>
+  <si>
+    <t>Consumo energético (Gj/t)</t>
+  </si>
+  <si>
     <t>CAPEX</t>
   </si>
   <si>
     <t>OPEX</t>
   </si>
   <si>
+    <t>BF-BOF</t>
+  </si>
+  <si>
+    <t>BF-BOF CCS</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
     <t>MIDREX</t>
   </si>
   <si>
@@ -124,32 +140,17 @@
     <t>Hisarna</t>
   </si>
   <si>
+    <t>Hisarna CCS</t>
+  </si>
+  <si>
     <t>ULCOWIN</t>
-  </si>
-  <si>
-    <t>Consumo energético (Gj/t)</t>
-  </si>
-  <si>
-    <t>BF-BOF</t>
-  </si>
-  <si>
-    <t>EAF</t>
-  </si>
-  <si>
-    <t>Tecnologias de produção</t>
-  </si>
-  <si>
-    <t>BF-BOF CCS</t>
-  </si>
-  <si>
-    <t>Hisarna CCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +545,7 @@
       <selection activeCell="A25" sqref="A25:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -553,7 +554,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -587,7 +588,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -604,7 +605,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,7 +622,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -638,7 +639,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -655,7 +656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -672,7 +673,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -689,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -723,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -740,7 +741,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,7 +758,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -774,7 +775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -791,7 +792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -808,7 +809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -842,7 +843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -859,7 +860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -876,7 +877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -893,7 +894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -910,23 +911,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>22</v>
@@ -939,17 +940,17 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>7</v>
@@ -962,9 +963,9 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>17</v>
@@ -977,9 +978,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>18</v>
@@ -992,9 +993,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>23</v>
@@ -1007,9 +1008,9 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>27</v>
@@ -1022,9 +1023,9 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>40</v>
